--- a/biology/Botanique/Eurybia_(plante)/Eurybia_(plante).xlsx
+++ b/biology/Botanique/Eurybia_(plante)/Eurybia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurybia est un genre de plantes à fleurs de la famille des Asteraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (30 mai 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (30 mai 2013) :
 Eurybia avita
 Eurybia chlorolepis
 Eurybia compacta
@@ -537,7 +551,7 @@
 Eurybia spinulosa
 Eurybia surculosa
 Eurybia ×herveyi
-Selon ITIS      (30 mai 2013)[2] :
+Selon ITIS      (30 mai 2013) :
 Eurybia avita (Alexander) G.L. Nesom
 Eurybia chlorolepis (Burgess) G.L. Nesom
 Eurybia compacta G.L. Nesom
@@ -561,7 +575,7 @@
 Eurybia spectabilis (Aiton) G.L. Nesom
 Eurybia spinulosa (Chapm.) G.L. Nesom
 Eurybia surculosa (Michx.) G.L. Nesom
-Selon Tropicos                                           (30 mai 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Eurybia avita (Alexander) G.L. Nesom
 Eurybia chapmanii (Torr. &amp; A. Gray) G.L. Nesom
 Eurybia chlorolepis (E.S. Burgess) G.L. Nesom
